--- a/Tools/Datas/fish.xlsx
+++ b/Tools/Datas/fish.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haixiangchen/Desktop/IdeaProjects/hxchen/A3Game/Tools/Datas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05F982D-34F5-494C-9388-9530B51AB67F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30890" windowHeight="17930"/>
+    <workbookView xWindow="31480" yWindow="1040" windowWidth="34300" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>VeeR</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>VeeR:</t>
@@ -36,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>VeeR:</t>
@@ -58,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,13 +75,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>VeeR:</t>
@@ -80,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -90,13 +102,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>VeeR:</t>
@@ -105,6 +118,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -120,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>##var</t>
   </si>
@@ -186,9 +200,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>(list#sep=|),float</t>
   </si>
   <si>
     <t>资源ID</t>
@@ -431,15 +442,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,377 +459,60 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.5"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -845,251 +535,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,61 +573,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1466,39 +870,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="7.36363636363636" customWidth="1"/>
-    <col min="3" max="3" width="19.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="25.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
     <col min="7" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="18.0909090909091" customWidth="1"/>
-    <col min="11" max="11" width="15.6363636363636" customWidth="1"/>
-    <col min="12" max="12" width="15.0909090909091" customWidth="1"/>
-    <col min="13" max="13" width="11.9090909090909" customWidth="1"/>
-    <col min="14" max="14" width="11.1818181818182" customWidth="1"/>
-    <col min="15" max="15" width="12.7272727272727" customWidth="1"/>
-    <col min="16" max="16" width="11.7272727272727" customWidth="1"/>
-    <col min="17" max="17" width="12.0909090909091" customWidth="1"/>
-    <col min="18" max="18" width="16.9090909090909" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:31" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" ht="15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1577,10 +980,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
@@ -1622,63 +1025,63 @@
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" ht="15">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" t="s">
         <v>39</v>
-      </c>
-      <c r="S3" t="s">
-        <v>40</v>
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -1690,32 +1093,55 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" ht="16">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
       <c r="J4" s="5">
         <v>5</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>150</v>
+      </c>
+      <c r="N4" s="5">
+        <v>100</v>
+      </c>
+      <c r="O4" s="5">
+        <v>180</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>60</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
@@ -1726,111 +1152,174 @@
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:31" ht="16">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="K5" s="5">
         <v>2</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>150</v>
+      </c>
+      <c r="N5" s="5">
+        <v>100</v>
+      </c>
+      <c r="O5" s="5">
+        <v>180</v>
+      </c>
+      <c r="P5" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>60</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="16">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
       <c r="J6" s="5">
         <v>2</v>
       </c>
       <c r="K6" s="5">
         <v>3</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>150</v>
+      </c>
+      <c r="N6" s="5">
+        <v>100</v>
+      </c>
+      <c r="O6" s="5">
+        <v>180</v>
+      </c>
+      <c r="P6" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>60</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="16">
       <c r="A7" s="4"/>
       <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
       <c r="J7" s="5">
         <v>8</v>
       </c>
       <c r="K7" s="5">
         <v>4</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:18">
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>150</v>
+      </c>
+      <c r="N7" s="5">
+        <v>100</v>
+      </c>
+      <c r="O7" s="5">
+        <v>180</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>60</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="18" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -1863,24 +1352,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:18">
+    <row r="9" spans="1:31" ht="18" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -1913,26 +1402,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:18">
+    <row r="10" spans="1:31" ht="18" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
       <c r="J10" s="5">
         <v>3</v>
       </c>
@@ -1961,26 +1452,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:18">
+    <row r="11" spans="1:31" ht="18" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
       <c r="J11" s="5">
         <v>3</v>
       </c>
@@ -2009,26 +1502,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:18">
+    <row r="12" spans="1:31" ht="18" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
       <c r="J12" s="5">
         <v>3</v>
       </c>
@@ -2057,26 +1552,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:28">
+    <row r="13" spans="1:31" ht="18" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
       <c r="J13" s="5">
         <v>3</v>
       </c>
@@ -2107,26 +1604,28 @@
       <c r="V13" s="9"/>
       <c r="AB13" s="9"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:18">
+    <row r="14" spans="1:31" ht="18" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="5">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
       <c r="J14" s="5">
         <v>3</v>
       </c>
@@ -2155,26 +1654,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:18">
+    <row r="15" spans="1:31" ht="18" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="5">
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
       <c r="J15" s="5">
         <v>3</v>
       </c>
@@ -2203,26 +1704,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:18">
+    <row r="16" spans="1:31" ht="18" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="5">
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
       <c r="J16" s="5">
         <v>3</v>
       </c>
@@ -2251,26 +1754,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:18">
+    <row r="17" spans="1:18" ht="18" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
       <c r="J17" s="5">
         <v>3</v>
       </c>
@@ -2299,24 +1804,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:18">
+    <row r="18" spans="1:18" ht="18" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -2349,26 +1854,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:18">
+    <row r="19" spans="1:18" ht="18" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="5">
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
       <c r="J19" s="5">
         <v>3</v>
       </c>
@@ -2397,26 +1904,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:18">
+    <row r="20" spans="1:18" ht="18" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5">
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
       <c r="J20" s="5">
         <v>3</v>
       </c>
@@ -2445,26 +1954,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:18">
+    <row r="21" spans="1:18" ht="18" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5">
         <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
       <c r="J21" s="5">
         <v>3</v>
       </c>
@@ -2493,26 +2004,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:18">
+    <row r="22" spans="1:18" ht="18" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="5">
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
       <c r="J22" s="5">
         <v>3</v>
       </c>
@@ -2541,26 +2054,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:18">
+    <row r="23" spans="1:18" ht="18" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5">
         <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
       <c r="J23" s="5">
         <v>3</v>
       </c>
@@ -2589,26 +2104,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:18">
+    <row r="24" spans="1:18" ht="18" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
       <c r="J24" s="5">
         <v>3</v>
       </c>
@@ -2637,26 +2154,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:18">
+    <row r="25" spans="1:18" ht="18" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="5">
         <v>22</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
       <c r="J25" s="5">
         <v>3</v>
       </c>
@@ -2685,26 +2204,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:18">
+    <row r="26" spans="1:18" ht="18" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="5">
         <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
       <c r="J26" s="5">
         <v>5</v>
       </c>
@@ -2733,26 +2254,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:18">
+    <row r="27" spans="1:18" ht="18" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5">
         <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
       <c r="J27" s="5">
         <v>5</v>
       </c>
@@ -2781,7 +2304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:17">
+    <row r="28" spans="1:18" ht="18" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2800,7 +2323,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:17">
+    <row r="29" spans="1:18" ht="18" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2819,7 +2342,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:17">
+    <row r="30" spans="1:18" ht="18" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2838,7 +2361,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:17">
+    <row r="31" spans="1:18" ht="18" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2857,7 +2380,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:17">
+    <row r="32" spans="1:18" ht="18" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2876,7 +2399,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:17">
+    <row r="33" spans="1:17" ht="18" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2895,7 +2418,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:17">
+    <row r="34" spans="1:17" ht="18" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2914,7 +2437,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" ht="18" customHeight="1" spans="1:17">
+    <row r="35" spans="1:17" ht="18" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2933,7 +2456,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" ht="18" customHeight="1" spans="1:17">
+    <row r="36" spans="1:17" ht="18" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2952,7 +2475,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" ht="18" customHeight="1" spans="1:17">
+    <row r="37" spans="1:17" ht="18" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2971,7 +2494,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" ht="18" customHeight="1" spans="1:17">
+    <row r="38" spans="1:17" ht="18" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2990,7 +2513,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" ht="18" customHeight="1" spans="1:17">
+    <row r="39" spans="1:17" ht="18" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3009,15 +2532,15 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" ht="18" customHeight="1"/>
-    <row r="41" ht="18" customHeight="1"/>
-    <row r="42" ht="18" customHeight="1"/>
-    <row r="43" ht="18" customHeight="1"/>
-    <row r="44" ht="18" customHeight="1"/>
-    <row r="45" ht="18" customHeight="1"/>
-    <row r="46" ht="18" customHeight="1"/>
-    <row r="47" ht="18" customHeight="1"/>
-    <row r="48" ht="18" customHeight="1"/>
+    <row r="40" spans="1:17" ht="18" customHeight="1"/>
+    <row r="41" spans="1:17" ht="18" customHeight="1"/>
+    <row r="42" spans="1:17" ht="18" customHeight="1"/>
+    <row r="43" spans="1:17" ht="18" customHeight="1"/>
+    <row r="44" spans="1:17" ht="18" customHeight="1"/>
+    <row r="45" spans="1:17" ht="18" customHeight="1"/>
+    <row r="46" spans="1:17" ht="18" customHeight="1"/>
+    <row r="47" spans="1:17" ht="18" customHeight="1"/>
+    <row r="48" spans="1:17" ht="18" customHeight="1"/>
     <row r="49" ht="18" customHeight="1"/>
     <row r="50" ht="18" customHeight="1"/>
     <row r="51" ht="18" customHeight="1"/>
@@ -3030,43 +2553,37 @@
     <row r="58" ht="18" customHeight="1"/>
     <row r="59" ht="18" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>